--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/12012026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/12012026.xlsx
@@ -1,117 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>TEXTO_MENSAJE</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56994148421</t>
-  </si>
-  <si>
-    <t>lucesalejandro3@gmail.com</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lunes, 12 de enero de 2026
-*Evangelio del Día*
-Lectura del santo evangelio según san Marcos
-Marcos 1, 14-20 Después de que arrestaron a Juan el Bautista, Jesús se fue a Galilea para predicar el Evangelio de Dios y decía: “Se ha cumplido el tiempo y el Reino de Dios ya está cerca. Arrepintanse y crean en el Evangelio”. Caminaba Jesús por la orilla del lago de Galilea, cuando vio a Simón y a su hermano, Andrés, echando las redes en el lago, pues eran pescadores. Jesús les dijo: “Síganme y haré de ustedes pescadores de hombres”. Inmediatamente dejaron las redes y lo siguieron. Un poco más adelante, vio a Santiago y a Juan, hijos de Zebedeo, que estaban en una barca, remendando sus redes. Los llamó, y ellos, dejando en la barca a su padre con los trabajadores, se fueron con Jesús.
-*Oración de la mañana*
-Querido Jesús, guía de nuestro camino, así como te presentaste a Simón y Andrés para hacerlos pescadores de hombres, te pedimos que nos permitas ser tus discípulos en este nuevo día. Ayúdanos a escuchar tu voz y seguirte sin dudar, dejando atrás todo aquello que nos ata a este mundo y nos impide seguir tu voluntad.
-Amado Padre, gracias por la bendición de este nuevo día. Tu palabra nos recuerda que el tiempo se ha cumplido y que tu Reino está cerca. Que este conocimiento nos impulse a vivir cada día en arrepentimiento y fe en el Evangelio, reconociendo tu amor y misericordia que nos llama a la conversión y a seguirte con todo nuestro corazón.
-Espíritu Santo, luz de nuestra alma, ilumina nuestro camino y danos la fortaleza para responder al llamado de Jesús. Ayúdanos a ser pescadores de hombres, llevando la Buena Nueva a quienes aún no te conocen, y sirviendo con amor y humildad en todo lo que hagamos.
-En la confianza de tu amor y misericordia infinitos, empezamos este día, en el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>56973223070</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>56971748545</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>56931123918</t>
-  </si>
-  <si>
-    <t>Yume</t>
-  </si>
-  <si>
-    <t>584146711206</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,28 +51,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,193 +456,447 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="100" style="1" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="8"/>
+    <col width="100" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRES</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_PATERNO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_MATERNO</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CELULAR</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>MAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>WHATSAPP</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>TEXTO_MENSAJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="150" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56994148421</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>lunes, 12 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 1, 14-20 Después de que arrestaron a Juan el Bautista, Jesús se fue a Galilea para predicar el Evangelio de Dios y decía: “Se ha cumplido el tiempo y el Reino de Dios ya está cerca. Arrepintanse y crean en el Evangelio”. Caminaba Jesús por la orilla del lago de Galilea, cuando vio a Simón y a su hermano, Andrés, echando las redes en el lago, pues eran pescadores. Jesús les dijo: “Síganme y haré de ustedes pescadores de hombres”. Inmediatamente dejaron las redes y lo siguieron. Un poco más adelante, vio a Santiago y a Juan, hijos de Zebedeo, que estaban en una barca, remendando sus redes. Los llamó, y ellos, dejando en la barca a su padre con los trabajadores, se fueron con Jesús.
+*Oración de la mañana*
+Querido Jesús, guía de nuestro camino, así como te presentaste a Simón y Andrés para hacerlos pescadores de hombres, te pedimos que nos permitas ser tus discípulos en este nuevo día. Ayúdanos a escuchar tu voz y seguirte sin dudar, dejando atrás todo aquello que nos ata a este mundo y nos impide seguir tu voluntad.
+Amado Padre, gracias por la bendición de este nuevo día. Tu palabra nos recuerda que el tiempo se ha cumplido y que tu Reino está cerca. Que este conocimiento nos impulse a vivir cada día en arrepentimiento y fe en el Evangelio, reconociendo tu amor y misericordia que nos llama a la conversión y a seguirte con todo nuestro corazón.
+Espíritu Santo, luz de nuestra alma, ilumina nuestro camino y danos la fortaleza para responder al llamado de Jesús. Ayúdanos a ser pescadores de hombres, llevando la Buena Nueva a quienes aún no te conocen, y sirviendo con amor y humildad en todo lo que hagamos.
+En la confianza de tu amor y misericordia infinitos, empezamos este día, en el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
+    <row r="3" ht="150" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56973223070</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>lunes, 12 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 1, 14-20 Después de que arrestaron a Juan el Bautista, Jesús se fue a Galilea para predicar el Evangelio de Dios y decía: “Se ha cumplido el tiempo y el Reino de Dios ya está cerca. Arrepintanse y crean en el Evangelio”. Caminaba Jesús por la orilla del lago de Galilea, cuando vio a Simón y a su hermano, Andrés, echando las redes en el lago, pues eran pescadores. Jesús les dijo: “Síganme y haré de ustedes pescadores de hombres”. Inmediatamente dejaron las redes y lo siguieron. Un poco más adelante, vio a Santiago y a Juan, hijos de Zebedeo, que estaban en una barca, remendando sus redes. Los llamó, y ellos, dejando en la barca a su padre con los trabajadores, se fueron con Jesús.
+*Oración de la mañana*
+Querido Jesús, guía de nuestro camino, así como te presentaste a Simón y Andrés para hacerlos pescadores de hombres, te pedimos que nos permitas ser tus discípulos en este nuevo día. Ayúdanos a escuchar tu voz y seguirte sin dudar, dejando atrás todo aquello que nos ata a este mundo y nos impide seguir tu voluntad.
+Amado Padre, gracias por la bendición de este nuevo día. Tu palabra nos recuerda que el tiempo se ha cumplido y que tu Reino está cerca. Que este conocimiento nos impulse a vivir cada día en arrepentimiento y fe en el Evangelio, reconociendo tu amor y misericordia que nos llama a la conversión y a seguirte con todo nuestro corazón.
+Espíritu Santo, luz de nuestra alma, ilumina nuestro camino y danos la fortaleza para responder al llamado de Jesús. Ayúdanos a ser pescadores de hombres, llevando la Buena Nueva a quienes aún no te conocen, y sirviendo con amor y humildad en todo lo que hagamos.
+En la confianza de tu amor y misericordia infinitos, empezamos este día, en el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+    <row r="4" ht="150" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mama</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56971748545</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>lunes, 12 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 1, 14-20 Después de que arrestaron a Juan el Bautista, Jesús se fue a Galilea para predicar el Evangelio de Dios y decía: “Se ha cumplido el tiempo y el Reino de Dios ya está cerca. Arrepintanse y crean en el Evangelio”. Caminaba Jesús por la orilla del lago de Galilea, cuando vio a Simón y a su hermano, Andrés, echando las redes en el lago, pues eran pescadores. Jesús les dijo: “Síganme y haré de ustedes pescadores de hombres”. Inmediatamente dejaron las redes y lo siguieron. Un poco más adelante, vio a Santiago y a Juan, hijos de Zebedeo, que estaban en una barca, remendando sus redes. Los llamó, y ellos, dejando en la barca a su padre con los trabajadores, se fueron con Jesús.
+*Oración de la mañana*
+Querido Jesús, guía de nuestro camino, así como te presentaste a Simón y Andrés para hacerlos pescadores de hombres, te pedimos que nos permitas ser tus discípulos en este nuevo día. Ayúdanos a escuchar tu voz y seguirte sin dudar, dejando atrás todo aquello que nos ata a este mundo y nos impide seguir tu voluntad.
+Amado Padre, gracias por la bendición de este nuevo día. Tu palabra nos recuerda que el tiempo se ha cumplido y que tu Reino está cerca. Que este conocimiento nos impulse a vivir cada día en arrepentimiento y fe en el Evangelio, reconociendo tu amor y misericordia que nos llama a la conversión y a seguirte con todo nuestro corazón.
+Espíritu Santo, luz de nuestra alma, ilumina nuestro camino y danos la fortaleza para responder al llamado de Jesús. Ayúdanos a ser pescadores de hombres, llevando la Buena Nueva a quienes aún no te conocen, y sirviendo con amor y humildad en todo lo que hagamos.
+En la confianza de tu amor y misericordia infinitos, empezamos este día, en el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+    <row r="5" ht="150" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56931123918</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>lunes, 12 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 1, 14-20 Después de que arrestaron a Juan el Bautista, Jesús se fue a Galilea para predicar el Evangelio de Dios y decía: “Se ha cumplido el tiempo y el Reino de Dios ya está cerca. Arrepintanse y crean en el Evangelio”. Caminaba Jesús por la orilla del lago de Galilea, cuando vio a Simón y a su hermano, Andrés, echando las redes en el lago, pues eran pescadores. Jesús les dijo: “Síganme y haré de ustedes pescadores de hombres”. Inmediatamente dejaron las redes y lo siguieron. Un poco más adelante, vio a Santiago y a Juan, hijos de Zebedeo, que estaban en una barca, remendando sus redes. Los llamó, y ellos, dejando en la barca a su padre con los trabajadores, se fueron con Jesús.
+*Oración de la mañana*
+Querido Jesús, guía de nuestro camino, así como te presentaste a Simón y Andrés para hacerlos pescadores de hombres, te pedimos que nos permitas ser tus discípulos en este nuevo día. Ayúdanos a escuchar tu voz y seguirte sin dudar, dejando atrás todo aquello que nos ata a este mundo y nos impide seguir tu voluntad.
+Amado Padre, gracias por la bendición de este nuevo día. Tu palabra nos recuerda que el tiempo se ha cumplido y que tu Reino está cerca. Que este conocimiento nos impulse a vivir cada día en arrepentimiento y fe en el Evangelio, reconociendo tu amor y misericordia que nos llama a la conversión y a seguirte con todo nuestro corazón.
+Espíritu Santo, luz de nuestra alma, ilumina nuestro camino y danos la fortaleza para responder al llamado de Jesús. Ayúdanos a ser pescadores de hombres, llevando la Buena Nueva a quienes aún no te conocen, y sirviendo con amor y humildad en todo lo que hagamos.
+En la confianza de tu amor y misericordia infinitos, empezamos este día, en el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+    <row r="6" ht="150" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yume</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>584146711206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>lunes, 12 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 1, 14-20 Después de que arrestaron a Juan el Bautista, Jesús se fue a Galilea para predicar el Evangelio de Dios y decía: “Se ha cumplido el tiempo y el Reino de Dios ya está cerca. Arrepintanse y crean en el Evangelio”. Caminaba Jesús por la orilla del lago de Galilea, cuando vio a Simón y a su hermano, Andrés, echando las redes en el lago, pues eran pescadores. Jesús les dijo: “Síganme y haré de ustedes pescadores de hombres”. Inmediatamente dejaron las redes y lo siguieron. Un poco más adelante, vio a Santiago y a Juan, hijos de Zebedeo, que estaban en una barca, remendando sus redes. Los llamó, y ellos, dejando en la barca a su padre con los trabajadores, se fueron con Jesús.
+*Oración de la mañana*
+Querido Jesús, guía de nuestro camino, así como te presentaste a Simón y Andrés para hacerlos pescadores de hombres, te pedimos que nos permitas ser tus discípulos en este nuevo día. Ayúdanos a escuchar tu voz y seguirte sin dudar, dejando atrás todo aquello que nos ata a este mundo y nos impide seguir tu voluntad.
+Amado Padre, gracias por la bendición de este nuevo día. Tu palabra nos recuerda que el tiempo se ha cumplido y que tu Reino está cerca. Que este conocimiento nos impulse a vivir cada día en arrepentimiento y fe en el Evangelio, reconociendo tu amor y misericordia que nos llama a la conversión y a seguirte con todo nuestro corazón.
+Espíritu Santo, luz de nuestra alma, ilumina nuestro camino y danos la fortaleza para responder al llamado de Jesús. Ayúdanos a ser pescadores de hombres, llevando la Buena Nueva a quienes aún no te conocen, y sirviendo con amor y humildad en todo lo que hagamos.
+En la confianza de tu amor y misericordia infinitos, empezamos este día, en el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mariangely</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56972028078</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mariangelygonzalez14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>lunes, 12 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 1, 14-20 Después de que arrestaron a Juan el Bautista, Jesús se fue a Galilea para predicar el Evangelio de Dios y decía: “Se ha cumplido el tiempo y el Reino de Dios ya está cerca. Arrepintanse y crean en el Evangelio”. Caminaba Jesús por la orilla del lago de Galilea, cuando vio a Simón y a su hermano, Andrés, echando las redes en el lago, pues eran pescadores. Jesús les dijo: “Síganme y haré de ustedes pescadores de hombres”. Inmediatamente dejaron las redes y lo siguieron. Un poco más adelante, vio a Santiago y a Juan, hijos de Zebedeo, que estaban en una barca, remendando sus redes. Los llamó, y ellos, dejando en la barca a su padre con los trabajadores, se fueron con Jesús.
+*Oración de la mañana*
+Querido Jesús, guía de nuestro camino, así como te presentaste a Simón y Andrés para hacerlos pescadores de hombres, te pedimos que nos permitas ser tus discípulos en este nuevo día. Ayúdanos a escuchar tu voz y seguirte sin dudar, dejando atrás todo aquello que nos ata a este mundo y nos impide seguir tu voluntad.
+Amado Padre, gracias por la bendición de este nuevo día. Tu palabra nos recuerda que el tiempo se ha cumplido y que tu Reino está cerca. Que este conocimiento nos impulse a vivir cada día en arrepentimiento y fe en el Evangelio, reconociendo tu amor y misericordia que nos llama a la conversión y a seguirte con todo nuestro corazón.
+Espíritu Santo, luz de nuestra alma, ilumina nuestro camino y danos la fortaleza para responder al llamado de Jesús. Ayúdanos a ser pescadores de hombres, llevando la Buena Nueva a quienes aún no te conocen, y sirviendo con amor y humildad en todo lo que hagamos.
+En la confianza de tu amor y misericordia infinitos, empezamos este día, en el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALEJANDRO MANUEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LUCES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34672527995</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>alejandroluces5515@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>lunes, 12 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 1, 14-20 Después de que arrestaron a Juan el Bautista, Jesús se fue a Galilea para predicar el Evangelio de Dios y decía: “Se ha cumplido el tiempo y el Reino de Dios ya está cerca. Arrepintanse y crean en el Evangelio”. Caminaba Jesús por la orilla del lago de Galilea, cuando vio a Simón y a su hermano, Andrés, echando las redes en el lago, pues eran pescadores. Jesús les dijo: “Síganme y haré de ustedes pescadores de hombres”. Inmediatamente dejaron las redes y lo siguieron. Un poco más adelante, vio a Santiago y a Juan, hijos de Zebedeo, que estaban en una barca, remendando sus redes. Los llamó, y ellos, dejando en la barca a su padre con los trabajadores, se fueron con Jesús.
+*Oración de la mañana*
+Querido Jesús, guía de nuestro camino, así como te presentaste a Simón y Andrés para hacerlos pescadores de hombres, te pedimos que nos permitas ser tus discípulos en este nuevo día. Ayúdanos a escuchar tu voz y seguirte sin dudar, dejando atrás todo aquello que nos ata a este mundo y nos impide seguir tu voluntad.
+Amado Padre, gracias por la bendición de este nuevo día. Tu palabra nos recuerda que el tiempo se ha cumplido y que tu Reino está cerca. Que este conocimiento nos impulse a vivir cada día en arrepentimiento y fe en el Evangelio, reconociendo tu amor y misericordia que nos llama a la conversión y a seguirte con todo nuestro corazón.
+Espíritu Santo, luz de nuestra alma, ilumina nuestro camino y danos la fortaleza para responder al llamado de Jesús. Ayúdanos a ser pescadores de hombres, llevando la Buena Nueva a quienes aún no te conocen, y sirviendo con amor y humildad en todo lo que hagamos.
+En la confianza de tu amor y misericordia infinitos, empezamos este día, en el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marianny</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56967970252</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>marikaro2508@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>lunes, 12 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 1, 14-20 Después de que arrestaron a Juan el Bautista, Jesús se fue a Galilea para predicar el Evangelio de Dios y decía: “Se ha cumplido el tiempo y el Reino de Dios ya está cerca. Arrepintanse y crean en el Evangelio”. Caminaba Jesús por la orilla del lago de Galilea, cuando vio a Simón y a su hermano, Andrés, echando las redes en el lago, pues eran pescadores. Jesús les dijo: “Síganme y haré de ustedes pescadores de hombres”. Inmediatamente dejaron las redes y lo siguieron. Un poco más adelante, vio a Santiago y a Juan, hijos de Zebedeo, que estaban en una barca, remendando sus redes. Los llamó, y ellos, dejando en la barca a su padre con los trabajadores, se fueron con Jesús.
+*Oración de la mañana*
+Querido Jesús, guía de nuestro camino, así como te presentaste a Simón y Andrés para hacerlos pescadores de hombres, te pedimos que nos permitas ser tus discípulos en este nuevo día. Ayúdanos a escuchar tu voz y seguirte sin dudar, dejando atrás todo aquello que nos ata a este mundo y nos impide seguir tu voluntad.
+Amado Padre, gracias por la bendición de este nuevo día. Tu palabra nos recuerda que el tiempo se ha cumplido y que tu Reino está cerca. Que este conocimiento nos impulse a vivir cada día en arrepentimiento y fe en el Evangelio, reconociendo tu amor y misericordia que nos llama a la conversión y a seguirte con todo nuestro corazón.
+Espíritu Santo, luz de nuestra alma, ilumina nuestro camino y danos la fortaleza para responder al llamado de Jesús. Ayúdanos a ser pescadores de hombres, llevando la Buena Nueva a quienes aún no te conocen, y sirviendo con amor y humildad en todo lo que hagamos.
+En la confianza de tu amor y misericordia infinitos, empezamos este día, en el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/12012026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/12012026.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,8 +529,6 @@
           <t>Alejandro</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>56994148421</t>
@@ -574,8 +572,6 @@
           <t>Omar</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>56973223070</t>
@@ -619,8 +615,6 @@
           <t>Mama</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>56971748545</t>
@@ -664,8 +658,6 @@
           <t>Victor</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>56931123918</t>
@@ -709,8 +701,6 @@
           <t>Yume</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>584146711206</t>
@@ -759,7 +749,6 @@
           <t>González</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>56972028078</t>
@@ -808,7 +797,6 @@
           <t>LUCES</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>34672527995</t>
@@ -857,7 +845,6 @@
           <t>Gonzalez</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>56967970252</t>
@@ -895,6 +882,55 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Milagros</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56936637515</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Milagrosghurtado@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>lunes, 12 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 1, 14-20 Después de que arrestaron a Juan el Bautista, Jesús se fue a Galilea para predicar el Evangelio de Dios y decía: “Se ha cumplido el tiempo y el Reino de Dios ya está cerca. Arrepintanse y crean en el Evangelio”. Caminaba Jesús por la orilla del lago de Galilea, cuando vio a Simón y a su hermano, Andrés, echando las redes en el lago, pues eran pescadores. Jesús les dijo: “Síganme y haré de ustedes pescadores de hombres”. Inmediatamente dejaron las redes y lo siguieron. Un poco más adelante, vio a Santiago y a Juan, hijos de Zebedeo, que estaban en una barca, remendando sus redes. Los llamó, y ellos, dejando en la barca a su padre con los trabajadores, se fueron con Jesús.
+*Oración de la mañana*
+Querido Jesús, guía de nuestro camino, así como te presentaste a Simón y Andrés para hacerlos pescadores de hombres, te pedimos que nos permitas ser tus discípulos en este nuevo día. Ayúdanos a escuchar tu voz y seguirte sin dudar, dejando atrás todo aquello que nos ata a este mundo y nos impide seguir tu voluntad.
+Amado Padre, gracias por la bendición de este nuevo día. Tu palabra nos recuerda que el tiempo se ha cumplido y que tu Reino está cerca. Que este conocimiento nos impulse a vivir cada día en arrepentimiento y fe en el Evangelio, reconociendo tu amor y misericordia que nos llama a la conversión y a seguirte con todo nuestro corazón.
+Espíritu Santo, luz de nuestra alma, ilumina nuestro camino y danos la fortaleza para responder al llamado de Jesús. Ayúdanos a ser pescadores de hombres, llevando la Buena Nueva a quienes aún no te conocen, y sirviendo con amor y humildad en todo lo que hagamos.
+En la confianza de tu amor y misericordia infinitos, empezamos este día, en el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
